--- a/coursework/online/MasteringMetrics/datacode/nhis/MM_Table1_1.xlsx
+++ b/coursework/online/MasteringMetrics/datacode/nhis/MM_Table1_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="129" uniqueCount="48">
   <si>
     <t>Health index</t>
   </si>
@@ -163,7 +163,279 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="273">
+  <fonts count="341">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1265,7 +1537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="276">
+  <borders count="345">
     <border>
       <left/>
       <right/>
@@ -3180,11 +3452,488 @@
       <diagonal style="none"/>
     </border>
     <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -4277,6 +5026,279 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="273" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="274" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="275" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="276" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="277" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="278" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="279" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="280" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="281" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="282" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="283" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="284" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="285" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="286" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="287" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="288" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="289" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="290" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="291" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="292" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="293" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="294" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="295" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="296" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="297" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="298" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="299" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="300" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="301" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="302" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="303" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="304" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="305" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="306" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="307" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="308" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="309" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="310" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="311" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="312" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="313" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="314" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="315" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="316" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="317" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="318" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="319" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="320" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="321" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="322" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="323" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="324" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="325" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="326" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="327" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="328" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="329" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="330" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="331" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="332" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="333" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="334" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="335" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="336" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="337" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="338" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="339" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="340" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4293,339 +5315,339 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="207"/>
-      <c r="B1" s="208" t="s">
+      <c r="A1" s="276"/>
+      <c r="B1" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="279" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="275" t="s">
+      <c r="E1" s="344" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="275" t="s">
+      <c r="F1" s="344" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="275" t="s">
+      <c r="G1" s="344" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212" t="s">
+      <c r="A2" s="280"/>
+      <c r="B2" s="281" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="275" t="s">
+      <c r="E2" s="344" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="275" t="s">
+      <c r="F2" s="344" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="275" t="s">
+      <c r="G2" s="344" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="216">
+      <c r="B3" s="285">
         <v>4.0088994855104252</v>
       </c>
-      <c r="C3" s="217">
+      <c r="C3" s="286">
         <v>3.6956542853127727</v>
       </c>
-      <c r="D3" s="218">
+      <c r="D3" s="287">
         <v>0.31324520019765889</v>
       </c>
-      <c r="E3" s="275">
+      <c r="E3" s="344">
         <v>4.0173790770823334</v>
       </c>
-      <c r="F3" s="275">
+      <c r="F3" s="344">
         <v>3.623059365220525</v>
       </c>
-      <c r="G3" s="275">
+      <c r="G3" s="344">
         <v>0.39431971186180997</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="220">
+      <c r="B4" s="289">
         <v>0.92880202127183276</v>
       </c>
-      <c r="C4" s="221">
+      <c r="C4" s="290">
         <v>1.0121241235483316</v>
       </c>
-      <c r="D4" s="222">
+      <c r="D4" s="291">
         <v>0.034039607635325854</v>
       </c>
-      <c r="E4" s="275">
+      <c r="E4" s="344">
         <v>0.91950263499527685</v>
       </c>
-      <c r="F4" s="275">
+      <c r="F4" s="344">
         <v>1.0140217481977223</v>
       </c>
-      <c r="G4" s="275">
+      <c r="G4" s="344">
         <v>0.035222889609219842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="292" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="224">
+      <c r="B5" s="293">
         <v>0.15777191562918075</v>
       </c>
-      <c r="C5" s="225">
+      <c r="C5" s="294">
         <v>0.16936666733994782</v>
       </c>
-      <c r="D5" s="226">
+      <c r="D5" s="295">
         <v>-0.011594751710767211</v>
       </c>
-      <c r="E5" s="275">
+      <c r="E5" s="344">
         <v>0.15083107040262164</v>
       </c>
-      <c r="F5" s="275">
+      <c r="F5" s="344">
         <v>0.174747350658565</v>
       </c>
-      <c r="G5" s="275">
+      <c r="G5" s="344">
         <v>-0.023916280255943737</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="296" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230">
+      <c r="B6" s="297"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="299">
         <v>0.011524896173387176</v>
       </c>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275">
+      <c r="E6" s="344"/>
+      <c r="F6" s="344"/>
+      <c r="G6" s="344">
         <v>0.012560264333228753</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="232">
+      <c r="B7" s="301">
         <v>43.976927776412872</v>
       </c>
-      <c r="C7" s="233">
+      <c r="C7" s="302">
         <v>41.26318474304798</v>
       </c>
-      <c r="D7" s="234">
+      <c r="D7" s="303">
         <v>2.7137430333649282</v>
       </c>
-      <c r="E7" s="275">
+      <c r="E7" s="344">
         <v>42.236916965411751</v>
       </c>
-      <c r="F7" s="275">
+      <c r="F7" s="344">
         <v>39.617438238221467</v>
       </c>
-      <c r="G7" s="275">
+      <c r="G7" s="344">
         <v>2.6194787271903053</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="235" t="s">
+      <c r="A8" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="236"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238">
+      <c r="B8" s="305"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="307">
         <v>0.29144045791497097</v>
       </c>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275">
+      <c r="E8" s="344"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="344">
         <v>0.3013479145488045</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="240">
+      <c r="B9" s="309">
         <v>14.305727792513471</v>
       </c>
-      <c r="C9" s="241">
+      <c r="C9" s="310">
         <v>11.56244453488377</v>
       </c>
-      <c r="D9" s="242">
+      <c r="D9" s="311">
         <v>2.7432832576297068</v>
       </c>
-      <c r="E9" s="275">
+      <c r="E9" s="344">
         <v>14.441983927751636</v>
       </c>
-      <c r="F9" s="275">
+      <c r="F9" s="344">
         <v>11.799080912916589</v>
       </c>
-      <c r="G9" s="275">
+      <c r="G9" s="344">
         <v>2.6429030148350545</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="312" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="246">
+      <c r="B10" s="313"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="315">
         <v>0.10155918333230521</v>
       </c>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275">
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="344">
         <v>0.10704115987250565</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="316" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="248">
+      <c r="B11" s="317">
         <v>3.5047336074983462</v>
       </c>
-      <c r="C11" s="249">
+      <c r="C11" s="318">
         <v>3.9769237182481683</v>
       </c>
-      <c r="D11" s="250">
+      <c r="D11" s="319">
         <v>-0.47219011074982403</v>
       </c>
-      <c r="E11" s="275">
+      <c r="E11" s="344">
         <v>3.4935901123142581</v>
       </c>
-      <c r="F11" s="275">
+      <c r="F11" s="344">
         <v>3.9263481420960833</v>
       </c>
-      <c r="G11" s="275">
+      <c r="G11" s="344">
         <v>-0.43275802978182687</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="320" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="254">
+      <c r="B12" s="321"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="323">
         <v>0.052350744368972704</v>
       </c>
-      <c r="E12" s="275"/>
-      <c r="F12" s="275"/>
-      <c r="G12" s="275">
+      <c r="E12" s="344"/>
+      <c r="F12" s="344"/>
+      <c r="G12" s="344">
         <v>0.053622824372306574</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="324" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="256">
+      <c r="B13" s="325">
         <v>0.92427314046617826</v>
       </c>
-      <c r="C13" s="257">
+      <c r="C13" s="326">
         <v>0.84946600925775906</v>
       </c>
-      <c r="D13" s="258">
+      <c r="D13" s="327">
         <v>0.074807131208419711</v>
       </c>
-      <c r="E13" s="275">
+      <c r="E13" s="344">
         <v>0.76545132726529075</v>
       </c>
-      <c r="F13" s="275">
+      <c r="F13" s="344">
         <v>0.55776168352357747</v>
       </c>
-      <c r="G13" s="275">
+      <c r="G13" s="344">
         <v>0.20768964374171065</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="259" t="s">
+      <c r="A14" s="328" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="260"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="262">
+      <c r="B14" s="329"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331">
         <v>0.011827187789573127</v>
       </c>
-      <c r="E14" s="275"/>
-      <c r="F14" s="275"/>
-      <c r="G14" s="275">
+      <c r="E14" s="344"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344">
         <v>0.016883399572202779</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="263" t="s">
+      <c r="A15" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="264">
+      <c r="B15" s="333">
         <v>106466.68812884863</v>
       </c>
-      <c r="C15" s="265">
+      <c r="C15" s="334">
         <v>45656.246036932673</v>
       </c>
-      <c r="D15" s="266">
+      <c r="D15" s="335">
         <v>60810.44209191671</v>
       </c>
-      <c r="E15" s="275">
+      <c r="E15" s="344">
         <v>106212.19899897611</v>
       </c>
-      <c r="F15" s="275">
+      <c r="F15" s="344">
         <v>46384.702503487446</v>
       </c>
-      <c r="G15" s="275">
+      <c r="G15" s="344">
         <v>59827.496495489038</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="336" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="270">
+      <c r="B16" s="337"/>
+      <c r="C16" s="338"/>
+      <c r="D16" s="339">
         <v>1355.7890428993931</v>
       </c>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275">
+      <c r="E16" s="344"/>
+      <c r="F16" s="344"/>
+      <c r="G16" s="344">
         <v>1406.0840496680075</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="271" t="s">
+      <c r="A17" s="340" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="272">
+      <c r="B17" s="341">
         <v>8113.5071285094855</v>
       </c>
-      <c r="C17" s="273">
+      <c r="C17" s="342">
         <v>1281.4928714905138</v>
       </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="275">
+      <c r="D17" s="343"/>
+      <c r="E17" s="344">
         <v>8263.6212316822293</v>
       </c>
-      <c r="F17" s="275">
+      <c r="F17" s="344">
         <v>1131.3787683177702</v>
       </c>
-      <c r="G17" s="275"/>
+      <c r="G17" s="344"/>
     </row>
   </sheetData>
 </worksheet>
